--- a/Unity/Luban/DataTables/Datas/__tables__.xlsx
+++ b/Unity/Luban/DataTables/Datas/__tables__.xlsx
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="5"/>

--- a/Unity/Luban/DataTables/Datas/__tables__.xlsx
+++ b/Unity/Luban/DataTables/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>tbLevelConfig</t>
+  </si>
+  <si>
+    <t>LevelConfig</t>
+  </si>
+  <si>
+    <t>第一关关卡配置.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1067,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="5"/>
@@ -1165,7 +1174,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="7:7">
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:5">

--- a/Unity/Luban/DataTables/Datas/__tables__.xlsx
+++ b/Unity/Luban/DataTables/Datas/__tables__.xlsx
@@ -116,7 +116,7 @@
     <t>LevelConfig</t>
   </si>
   <si>
-    <t>第一关关卡配置.xlsx</t>
+    <t>关卡配置.xlsx</t>
   </si>
 </sst>
 </file>
